--- a/Excels/GA.xlsx
+++ b/Excels/GA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="610">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1755,6 +1755,123 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
+  </si>
+  <si>
+    <t>Loan History</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Amount Credited</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Loan Channel</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Loan Recoveries</t>
+  </si>
+  <si>
+    <t>Amount Recovered</t>
+  </si>
+  <si>
+    <t>Recovery Method</t>
+  </si>
+  <si>
+    <t>Date Recovered</t>
+  </si>
+  <si>
+    <t>More Recharge History</t>
+  </si>
+  <si>
+    <t>BenefitsVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Old Expiry Date</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Row9</t>
+  </si>
+  <si>
+    <t>Row10</t>
+  </si>
+  <si>
+    <t>Loan Amount (XAF)</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +2034,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1956,6 +2073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2017,7 +2138,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,6 +2150,54 @@
         <a:xfrm>
           <a:off x="0" y="1841500"/>
           <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3238,10 +3407,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3257,7 +3426,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -3285,8 +3454,14 @@
       <c r="I1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3308,8 +3483,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -3331,8 +3508,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -3354,8 +3533,10 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3383,8 +3564,10 @@
       <c r="I5" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
@@ -3404,8 +3587,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -3425,8 +3610,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -3448,8 +3635,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3471,6 +3660,197 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3975,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>

--- a/Excels/GA.xlsx
+++ b/Excels/GA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="615">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1872,6 +1872,21 @@
   </si>
   <si>
     <t>Loan Amount (XAF)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2153,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2201,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,10 +3422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3851,6 +3866,29 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
